--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03D4BE4-BA31-4521-8612-CAF7F80F2617}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C6F22-64CD-43C3-BA65-17EC55B9F7EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>今天基本有效的时间段是早8点到11点整理和计划，11点-12点洗衣和收拾屋子，其他时间都浪费了，下午相亲是彻底的浪费时间，自身拖延现象非常严重，执行打折扣，态度有待改正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天有效时间是下午这段时间，对我个人App添加了新页面，解决了部分疑难问题等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天利用率很低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +387,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -416,10 +424,22 @@
       <c r="A3" s="2">
         <v>43514</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43515</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C6F22-64CD-43C3-BA65-17EC55B9F7EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DFCDAA-D6F4-443A-8CDC-8684EB7B35E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>今天利用率很低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天效率很低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +391,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -446,6 +450,12 @@
       <c r="A5" s="2">
         <v>43516</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DFCDAA-D6F4-443A-8CDC-8684EB7B35E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8491897D-29FD-4608-81BE-94A1FB267D9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="周总结" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,12 +50,16 @@
     <t>今天效率很低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>时间管理没能很好落实。个人App开发因库历史问题耽误了很多时间。练字和健身计划执行较好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +80,20 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -106,6 +125,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -390,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -597,4 +625,199 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0C1A15-76B1-4AEB-9990-60B899A6D182}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="100.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6">
+        <v>43518</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8491897D-29FD-4608-81BE-94A1FB267D9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233634A7-4571-4A14-B47D-8B5854C440FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,34 @@
   </si>
   <si>
     <t>时间管理没能很好落实。个人App开发因库历史问题耽误了很多时间。练字和健身计划执行较好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天英语短语积累很多，时间管理和工作时间管理太混乱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,6 +164,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,126 +448,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="100.625" style="1"/>
+    <col min="2" max="5" width="20.625" style="7" customWidth="1"/>
+    <col min="6" max="7" width="20.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="180.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="100.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43513</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43514</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43515</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43516</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43517</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43518</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43519</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43520</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43521</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43522</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43523</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43524</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43525</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43526</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43527</v>
       </c>
@@ -631,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0C1A15-76B1-4AEB-9990-60B899A6D182}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233634A7-4571-4A14-B47D-8B5854C440FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2B70E-1B3A-4872-B7F6-890474B22FEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="周总结" sheetId="3" r:id="rId2"/>
+    <sheet name="周总结" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,33 +21,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>利用率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深蹲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰卧起坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利用率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今天基本有效的时间段是早8点到11点整理和计划，11点-12点洗衣和收拾屋子，其他时间都浪费了，下午相亲是彻底的浪费时间，自身拖延现象非常严重，执行打折扣，态度有待改正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天利用率很低</t>
   </si>
   <si>
     <t>今天有效时间是下午这段时间，对我个人App添加了新页面，解决了部分疑难问题等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天利用率很低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>今天效率很低</t>
+  </si>
+  <si>
+    <t>专业技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改app bug，专业技能无进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天效率比较低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,31 +87,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>练字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人App</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天英语短语积累很多，时间管理和工作时间管理太混乱</t>
+    <t>App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,11 +115,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -118,6 +137,27 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -144,30 +184,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,262 +498,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="5" width="20.625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="20.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="180.625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="100.625" style="1"/>
+    <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="100.625" style="3"/>
+    <col min="11" max="16384" width="100.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>43513</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>43514</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>43515</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>43516</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>43517</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>43518</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>43513</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>43514</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43515</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43516</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43517</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43518</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="G7" s="9"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
         <v>43519</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>43520</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>43521</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>43522</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>43523</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>43524</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
         <v>43525</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
         <v>43526</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
         <v>43527</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
         <v>43528</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
         <v>43529</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
         <v>43530</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>43531</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
         <v>43532</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
         <v>43533</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
         <v>43534</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
         <v>43535</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
         <v>43536</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
         <v>43537</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
         <v>43538</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
         <v>43539</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
         <v>43540</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
         <v>43541</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
         <v>43542</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
         <v>43543</v>
       </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -713,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0C1A15-76B1-4AEB-9990-60B899A6D182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1F6A69-98B7-492A-891B-C18D2F7D5FE4}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -722,10 +1039,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="100.625" style="1"/>
+    <col min="1" max="1" width="20.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="180.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="100.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -733,170 +1050,170 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>43518</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
     </row>

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2B70E-1B3A-4872-B7F6-890474B22FEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C08625-7625-4898-B513-3475D3D19A8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>2页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天7点下班浪费时间去周媒人了，接近11点才回来，浪费很多时间，基本内容也没做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢琴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -509,12 +517,12 @@
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
     <col min="3" max="7" width="20.625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="100.625" style="3"/>
-    <col min="11" max="16384" width="100.625" style="1"/>
+    <col min="8" max="11" width="20.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="100.625" style="3"/>
+    <col min="13" max="16384" width="100.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -543,10 +551,14 @@
         <v>17</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>43513</v>
       </c>
@@ -560,11 +572,13 @@
       <c r="G2" s="9"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>43514</v>
       </c>
@@ -578,11 +592,13 @@
       <c r="G3" s="9"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>43515</v>
       </c>
@@ -596,11 +612,13 @@
       <c r="G4" s="9"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>43516</v>
       </c>
@@ -614,11 +632,13 @@
       <c r="G5" s="9"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>43517</v>
       </c>
@@ -642,11 +662,13 @@
       <c r="I6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>43518</v>
       </c>
@@ -668,15 +690,19 @@
       <c r="G7" s="9"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>43519</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10">
+        <v>0.15</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -685,8 +711,12 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>43520</v>
       </c>
@@ -699,8 +729,10 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>43521</v>
       </c>
@@ -713,8 +745,10 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>43522</v>
       </c>
@@ -727,8 +761,10 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>43523</v>
       </c>
@@ -741,8 +777,10 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>43524</v>
       </c>
@@ -755,8 +793,10 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>43525</v>
       </c>
@@ -769,8 +809,10 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>43526</v>
       </c>
@@ -783,8 +825,10 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>43527</v>
       </c>
@@ -797,8 +841,10 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>43528</v>
       </c>
@@ -811,8 +857,10 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>43529</v>
       </c>
@@ -825,8 +873,10 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>43530</v>
       </c>
@@ -839,8 +889,10 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>43531</v>
       </c>
@@ -853,8 +905,10 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>43532</v>
       </c>
@@ -867,8 +921,10 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>43533</v>
       </c>
@@ -881,8 +937,10 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>43534</v>
       </c>
@@ -895,8 +953,10 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>43535</v>
       </c>
@@ -909,8 +969,10 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>43536</v>
       </c>
@@ -923,8 +985,10 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>43537</v>
       </c>
@@ -937,8 +1001,10 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>43538</v>
       </c>
@@ -951,8 +1017,10 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>43539</v>
       </c>
@@ -965,8 +1033,10 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>43540</v>
       </c>
@@ -979,8 +1049,10 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>43541</v>
       </c>
@@ -993,8 +1065,10 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>43542</v>
       </c>
@@ -1007,8 +1081,10 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>43543</v>
       </c>
@@ -1021,6 +1097,8 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C08625-7625-4898-B513-3475D3D19A8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44EB75-B83D-4A78-9D66-AC6F8FA00B4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>钢琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今早练字，早晚英语，晚健身，专业技能和App基本无进展。去书店没有心思看，也没有收获。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,23 +518,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="20.625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="20.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="100.625" style="3"/>
-    <col min="13" max="16384" width="100.625" style="1"/>
+    <col min="3" max="8" width="20.625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="20.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="100.625" style="3"/>
+    <col min="14" max="16384" width="100.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -533,32 +545,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>43513</v>
       </c>
@@ -570,15 +585,16 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>43514</v>
       </c>
@@ -590,15 +606,16 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>43515</v>
       </c>
@@ -610,15 +627,16 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>43516</v>
       </c>
@@ -630,15 +648,16 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>43517</v>
       </c>
@@ -648,27 +667,28 @@
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>30</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <v>50</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>43518</v>
       </c>
@@ -679,24 +699,27 @@
         <v>18</v>
       </c>
       <c r="D7" s="9">
+        <v>100</v>
+      </c>
+      <c r="E7" s="9">
         <v>34</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>60</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>43519</v>
       </c>
@@ -704,35 +727,53 @@
         <v>0.15</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>80</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>43520</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9">
+        <v>120</v>
+      </c>
+      <c r="E9" s="9">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>43521</v>
       </c>
@@ -742,13 +783,14 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>43522</v>
       </c>
@@ -758,13 +800,14 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>43523</v>
       </c>
@@ -774,13 +817,14 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>43524</v>
       </c>
@@ -790,13 +834,14 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>43525</v>
       </c>
@@ -806,13 +851,14 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>43526</v>
       </c>
@@ -822,13 +868,14 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>43527</v>
       </c>
@@ -838,13 +885,14 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>43528</v>
       </c>
@@ -854,13 +902,14 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>43529</v>
       </c>
@@ -870,13 +919,14 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>43530</v>
       </c>
@@ -886,13 +936,14 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>43531</v>
       </c>
@@ -902,13 +953,14 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>43532</v>
       </c>
@@ -918,13 +970,14 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>43533</v>
       </c>
@@ -934,13 +987,14 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>43534</v>
       </c>
@@ -950,13 +1004,14 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>43535</v>
       </c>
@@ -966,13 +1021,14 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>43536</v>
       </c>
@@ -982,13 +1038,14 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>43537</v>
       </c>
@@ -998,13 +1055,14 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>43538</v>
       </c>
@@ -1014,13 +1072,14 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>43539</v>
       </c>
@@ -1030,13 +1089,14 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>43540</v>
       </c>
@@ -1046,13 +1106,14 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>43541</v>
       </c>
@@ -1062,13 +1123,14 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>43542</v>
       </c>
@@ -1078,13 +1140,14 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>43543</v>
       </c>
@@ -1094,11 +1157,12 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44EB75-B83D-4A78-9D66-AC6F8FA00B4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6FA6CC-4407-4E6F-AA7F-00CAC7CFD728}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>今早练字，早晚英语，晚健身，专业技能和App基本无进展。去书店没有心思看，也没有收获。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上组装琴，无时间练字还有锻炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚加班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -779,7 +787,9 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>80</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -788,7 +798,9 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
@@ -796,7 +808,9 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>120</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -805,7 +819,9 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="M11" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6FA6CC-4407-4E6F-AA7F-00CAC7CFD728}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B482B7-EC77-44F4-AA65-377DC9F02E40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,14 @@
   </si>
   <si>
     <t>今晚加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚加班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,23 +534,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="20.625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="20.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="100.625" style="3"/>
-    <col min="14" max="16384" width="100.625" style="1"/>
+    <col min="3" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="20.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="100.625" style="3"/>
+    <col min="15" max="16384" width="100.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -553,35 +561,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>43513</v>
       </c>
@@ -594,15 +605,16 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>43514</v>
       </c>
@@ -615,15 +627,16 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>43515</v>
       </c>
@@ -636,15 +649,16 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>43516</v>
       </c>
@@ -657,15 +671,16 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>43517</v>
       </c>
@@ -676,27 +691,28 @@
         <v>14</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
         <v>30</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>50</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>43518</v>
       </c>
@@ -706,28 +722,29 @@
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
         <v>100</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>34</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>60</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>43519</v>
       </c>
@@ -735,22 +752,23 @@
         <v>0.15</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>80</v>
       </c>
-      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>43520</v>
       </c>
@@ -760,87 +778,97 @@
       <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>120</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>40</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>100</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>43521</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>80</v>
       </c>
-      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>43522</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
         <v>120</v>
       </c>
-      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>43523</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>43524</v>
       </c>
@@ -851,13 +879,14 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>43525</v>
       </c>
@@ -868,13 +897,14 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>43526</v>
       </c>
@@ -885,13 +915,14 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>43527</v>
       </c>
@@ -902,13 +933,14 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>43528</v>
       </c>
@@ -919,13 +951,14 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>43529</v>
       </c>
@@ -936,13 +969,14 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>43530</v>
       </c>
@@ -953,13 +987,14 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>43531</v>
       </c>
@@ -970,13 +1005,14 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>43532</v>
       </c>
@@ -987,13 +1023,14 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>43533</v>
       </c>
@@ -1004,13 +1041,14 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="12"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>43534</v>
       </c>
@@ -1021,13 +1059,14 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>43535</v>
       </c>
@@ -1038,13 +1077,14 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>43536</v>
       </c>
@@ -1055,13 +1095,14 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>43537</v>
       </c>
@@ -1072,13 +1113,14 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>43538</v>
       </c>
@@ -1089,13 +1131,14 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>43539</v>
       </c>
@@ -1106,13 +1149,14 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>43540</v>
       </c>
@@ -1123,13 +1167,14 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>43541</v>
       </c>
@@ -1140,13 +1185,14 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>43542</v>
       </c>
@@ -1157,13 +1203,14 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>43543</v>
       </c>
@@ -1174,11 +1221,12 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B482B7-EC77-44F4-AA65-377DC9F02E40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F3D623-1C37-479F-9B18-9B57F7A4CE42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>TED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天主要是学习练习钢琴，时间利用率比较低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +541,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -804,7 +808,9 @@
       <c r="A10" s="11">
         <v>43521</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10">
+        <v>0.1</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -826,7 +832,9 @@
       <c r="A11" s="11">
         <v>43522</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <v>0.1</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
@@ -848,7 +856,9 @@
       <c r="A12" s="11">
         <v>43523</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <v>0.15</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9">
         <v>1</v>
@@ -872,19 +882,33 @@
       <c r="A13" s="11">
         <v>43524</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10">
+        <v>0.15</v>
+      </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>34</v>
+      </c>
+      <c r="G13" s="9">
+        <v>100</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
+      <c r="N13" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F3D623-1C37-479F-9B18-9B57F7A4CE42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF049F-F6F3-45D5-8F3A-B200EC267CB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>今天主要是学习练习钢琴，时间利用率比较低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无进展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,12 +208,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -224,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,6 +268,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -540,15 +556,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
     <col min="10" max="13" width="20.625" style="3" customWidth="1"/>
     <col min="14" max="14" width="100.625" style="3"/>
     <col min="15" max="16384" width="100.625" style="1"/>
@@ -570,13 +588,13 @@
       <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -606,9 +624,9 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="9"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -628,9 +646,9 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="9"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -650,9 +668,9 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="9"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -672,9 +690,9 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="9"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -696,13 +714,13 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>30</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="13">
         <v>50</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
       <c r="I6" s="9"/>
@@ -730,13 +748,13 @@
       <c r="E7" s="9">
         <v>100</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>34</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="13">
         <v>60</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="13">
         <v>1</v>
       </c>
       <c r="I7" s="9"/>
@@ -760,9 +778,9 @@
       <c r="E8" s="9">
         <v>80</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="9"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -786,13 +804,13 @@
       <c r="E9" s="9">
         <v>120</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="13">
         <v>40</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="13">
         <v>100</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="9"/>
@@ -816,9 +834,9 @@
       <c r="E10" s="9">
         <v>80</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="9"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -840,9 +858,9 @@
       <c r="E11" s="9">
         <v>120</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="9"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -866,9 +884,9 @@
       <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -892,13 +910,13 @@
       <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="13">
         <v>34</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="13">
         <v>100</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="13">
         <v>1</v>
       </c>
       <c r="I13" s="9"/>
@@ -914,55 +932,75 @@
       <c r="A14" s="11">
         <v>43525</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="9"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>43526</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>43527</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
+      <c r="N16" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
@@ -972,9 +1010,9 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -990,9 +1028,9 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="9"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -1008,9 +1046,9 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="9"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -1026,9 +1064,9 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1044,9 +1082,9 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -1062,9 +1100,9 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="9"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -1080,9 +1118,9 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="9"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -1098,9 +1136,9 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="9"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -1116,9 +1154,9 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="9"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1134,9 +1172,9 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="9"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -1152,9 +1190,9 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="9"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -1170,9 +1208,9 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="9"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -1188,9 +1226,9 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="9"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -1206,9 +1244,9 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="9"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -1224,9 +1262,9 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="9"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -1242,9 +1280,9 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="9"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF049F-F6F3-45D5-8F3A-B200EC267CB8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2384C8BF-9B2B-4AD3-B026-575D2BAB0865}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>无进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +250,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,7 +275,7 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1016,9 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -1026,7 +1036,9 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -1044,7 +1056,9 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -1054,7 +1068,9 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
@@ -1062,7 +1078,9 @@
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1072,7 +1090,9 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="N20" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
@@ -1080,7 +1100,9 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -1090,7 +1112,9 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="N21" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
@@ -1098,7 +1122,9 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1108,7 +1134,9 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
@@ -1116,7 +1144,9 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -1126,7 +1156,9 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2384C8BF-9B2B-4AD3-B026-575D2BAB0865}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="统计表" sheetId="1" r:id="rId1"/>
     <sheet name="周总结" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +123,6 @@
   </si>
   <si>
     <t>今晚加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +211,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,7 +220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +281,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,766 +568,732 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="20.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="100.625" style="3"/>
-    <col min="15" max="16384" width="100.625" style="1"/>
+    <col min="3" max="3" width="20.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="20.625" style="14" customWidth="1"/>
+    <col min="9" max="10" width="20.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="100.625" style="3"/>
+    <col min="14" max="16384" width="100.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>43513</v>
       </c>
       <c r="B2" s="10">
         <v>0.23</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>43514</v>
       </c>
       <c r="B3" s="10">
         <v>0.1</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>43515</v>
       </c>
       <c r="B4" s="10">
         <v>0.35</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>43516</v>
       </c>
       <c r="B5" s="10">
         <v>0.1</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>43517</v>
       </c>
       <c r="B6" s="10">
         <v>0.2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="13">
+        <v>30</v>
+      </c>
       <c r="F6" s="13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G6" s="13">
-        <v>50</v>
-      </c>
-      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="K6" s="9"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>43518</v>
       </c>
       <c r="B7" s="10">
         <v>0.25</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D7" s="9">
         <v>100</v>
       </c>
+      <c r="E7" s="13">
+        <v>34</v>
+      </c>
       <c r="F7" s="13">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G7" s="13">
-        <v>60</v>
-      </c>
-      <c r="H7" s="13">
         <v>1</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>43519</v>
       </c>
       <c r="B8" s="10">
         <v>0.15</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="C8" s="15"/>
+      <c r="D8" s="9">
         <v>80</v>
       </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>43520</v>
       </c>
       <c r="B9" s="10">
         <v>0.15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="9">
         <v>120</v>
       </c>
+      <c r="E9" s="13">
+        <v>40</v>
+      </c>
       <c r="F9" s="13">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G9" s="13">
-        <v>100</v>
-      </c>
-      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>43521</v>
       </c>
       <c r="B10" s="10">
         <v>0.1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="C10" s="15"/>
+      <c r="D10" s="9">
         <v>80</v>
       </c>
+      <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>43522</v>
       </c>
       <c r="B11" s="10">
         <v>0.1</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="C11" s="15"/>
+      <c r="D11" s="9">
         <v>120</v>
       </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>43523</v>
       </c>
       <c r="B12" s="10">
         <v>0.15</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
+      <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>43524</v>
       </c>
       <c r="B13" s="10">
         <v>0.15</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="13">
+        <v>34</v>
+      </c>
+      <c r="F13" s="13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="13">
-        <v>34</v>
-      </c>
-      <c r="G13" s="13">
-        <v>100</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>43525</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>43526</v>
       </c>
       <c r="B15" s="10">
         <v>0</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="15"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>43527</v>
       </c>
       <c r="B16" s="10">
         <v>0</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>43528</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>43529</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9"/>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>43530</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9"/>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>43531</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9"/>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>43532</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9"/>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>43533</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9"/>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>43534</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9"/>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>43535</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="15"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>43536</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="15"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>43537</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="15"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>43538</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>43539</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="9"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>43540</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>43541</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>43542</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>43543</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="9"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1330,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1F6A69-98B7-492A-891B-C18D2F7D5FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/计划和反思/每日反思.xlsx
+++ b/计划和反思/每日反思.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>时间\利用率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>看病换药路上耽误时间有点多，App有优化，但是上架困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm，钢琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jvm总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="100.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -551,12 +559,11 @@
     <col min="5" max="8" width="20.625" style="9" customWidth="1"/>
     <col min="9" max="10" width="20.625" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="100.625" style="3"/>
-    <col min="14" max="16384" width="100.625" style="1"/>
+    <col min="12" max="12" width="100.625" style="3"/>
+    <col min="13" max="16384" width="100.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -590,12 +597,11 @@
       <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>43513</v>
       </c>
@@ -611,12 +617,11 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>43514</v>
       </c>
@@ -632,12 +637,11 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>43515</v>
       </c>
@@ -653,12 +657,11 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>43516</v>
       </c>
@@ -674,12 +677,11 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>43517</v>
       </c>
@@ -705,12 +707,11 @@
         <v>13</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>43518</v>
       </c>
@@ -736,12 +737,11 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>43519</v>
       </c>
@@ -759,12 +759,11 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>43520</v>
       </c>
@@ -790,12 +789,11 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>43521</v>
       </c>
@@ -813,12 +811,11 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>43522</v>
       </c>
@@ -836,12 +833,11 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>43523</v>
       </c>
@@ -859,12 +855,11 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>43524</v>
       </c>
@@ -888,12 +883,11 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>43525</v>
       </c>
@@ -909,12 +903,11 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>43526</v>
       </c>
@@ -932,12 +925,11 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>43527</v>
       </c>
@@ -953,12 +945,11 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>43528</v>
       </c>
@@ -975,9 +966,8 @@
       <c r="J17" s="7"/>
       <c r="K17" s="4"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>43529</v>
       </c>
@@ -994,9 +984,8 @@
       <c r="J18" s="7"/>
       <c r="K18" s="4"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>43530</v>
       </c>
@@ -1012,12 +1001,11 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>43531</v>
       </c>
@@ -1033,12 +1021,11 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>43532</v>
       </c>
@@ -1054,12 +1041,11 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>43533</v>
       </c>
@@ -1075,12 +1061,11 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>43534</v>
       </c>
@@ -1096,12 +1081,11 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>43535</v>
       </c>
@@ -1118,9 +1102,8 @@
       <c r="J24" s="7"/>
       <c r="K24" s="4"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>43536</v>
       </c>
@@ -1137,9 +1120,8 @@
       <c r="J25" s="7"/>
       <c r="K25" s="4"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>43537</v>
       </c>
@@ -1158,9 +1140,8 @@
         <v>1</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>43538</v>
       </c>
@@ -1180,16 +1161,17 @@
       <c r="K27" s="4">
         <v>1</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>43539</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5">
+        <v>0.2</v>
+      </c>
       <c r="C28" s="10"/>
       <c r="D28" s="4"/>
       <c r="E28" s="8"/>
@@ -1200,13 +1182,14 @@
       <c r="J28" s="7"/>
       <c r="K28" s="4"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>43540</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5">
+        <v>0.2</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8"/>
@@ -1217,13 +1200,14 @@
       <c r="J29" s="7"/>
       <c r="K29" s="4"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>43541</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5">
+        <v>0.15</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
@@ -1234,41 +1218,394 @@
       <c r="J30" s="7"/>
       <c r="K30" s="4"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>43542</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C31" s="10"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
       <c r="J31" s="7"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>43543</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="5">
+        <v>0.2</v>
+      </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>43576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>43590</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>43596</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="6">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>43602</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>43603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>43604</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="6">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="6">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="6">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="6">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="6">
+        <v>43611</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
